--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3854.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3854.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.368636255532598</v>
+        <v>3.615317344665527</v>
       </c>
       <c r="B1">
-        <v>2.971724261999132</v>
+        <v>6.209388732910156</v>
       </c>
       <c r="C1">
-        <v>4.150366415319476</v>
+        <v>5.602262020111084</v>
       </c>
       <c r="D1">
-        <v>2.932503676457211</v>
+        <v>6.432198047637939</v>
       </c>
       <c r="E1">
-        <v>1.054501854540411</v>
+        <v>3.850381851196289</v>
       </c>
     </row>
   </sheetData>
